--- a/mallar/import/sm_nm 2023/extraktion_01-SMNM2023 - med NM - v230701 v3.xlsx
+++ b/mallar/import/sm_nm 2023/extraktion_01-SMNM2023 - med NM - v230701 v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\sm_nm 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA80B9-B9BD-409C-BF65-E9D562DE8831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3234CE-8565-45C5-8354-A50F9CAE3022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" tabRatio="483" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="511">
   <si>
     <t>Linda Jenvall</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Sara Wingård</t>
   </si>
   <si>
-    <t>Svår klass, Seniorlag SM-klass</t>
-  </si>
-  <si>
     <t>Svår klass, Seniorlag NM-klass</t>
   </si>
   <si>
@@ -1367,9 +1364,6 @@
     <t>Julie Fog-Møller</t>
   </si>
   <si>
-    <t>Individuell minior 1* (CH1*)NM-klass</t>
-  </si>
-  <si>
     <t>Individuell minior 1* (CH1*) SM-klass</t>
   </si>
   <si>
@@ -1422,9 +1416,6 @@
   </si>
   <si>
     <t>Smilla, Erik</t>
-  </si>
-  <si>
-    <t>Reservlinförare: Pernilla Sjöstrand</t>
   </si>
   <si>
     <t>Finns ej med i TDB 2023-06-25 men ska med</t>
@@ -1578,6 +1569,27 @@
   </si>
   <si>
     <t>Alva, Hilma, Sofia</t>
+  </si>
+  <si>
+    <t>Svår klass, Seniorlag SM-klass (Squad 3*)</t>
+  </si>
+  <si>
+    <t>Svår klass, Seniorlag NM-klass (Squad 3*)</t>
+  </si>
+  <si>
+    <t>Svår klass, Seniorlag SM-NM kombinerat (Squad 3*)</t>
+  </si>
+  <si>
+    <t>Svår klass, Juniorlag SM-klass (Squad 2*)</t>
+  </si>
+  <si>
+    <t>Svår klass, Juniorlag NM-klass (Squad 2*)</t>
+  </si>
+  <si>
+    <t>Svår klass, Juniorlag SM-NM kombinerat (Squad 2*)</t>
+  </si>
+  <si>
+    <t>Individuell minior 1* (CH1*) NM-klass</t>
   </si>
 </sst>
 </file>
@@ -1981,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
-  <dimension ref="A1:W112"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2011,10 +2023,10 @@
         <v>629733</v>
       </c>
       <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
         <v>136</v>
-      </c>
-      <c r="C1" t="s">
-        <v>137</v>
       </c>
       <c r="D1">
         <v>40202</v>
@@ -2032,13 +2044,13 @@
         <v>579</v>
       </c>
       <c r="I1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" t="s">
         <v>169</v>
       </c>
-      <c r="J1" t="s">
-        <v>170</v>
-      </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L1">
         <v>105241</v>
@@ -2082,10 +2094,10 @@
         <v>629733</v>
       </c>
       <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
         <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
       </c>
       <c r="D2">
         <v>36847</v>
@@ -2106,10 +2118,10 @@
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2">
         <v>74165</v>
@@ -2153,10 +2165,10 @@
         <v>629733</v>
       </c>
       <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
         <v>136</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
       </c>
       <c r="D3">
         <v>18663</v>
@@ -2168,7 +2180,7 @@
         <v>301477</v>
       </c>
       <c r="G3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H3">
         <v>223</v>
@@ -2177,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L3">
         <v>115495</v>
@@ -2224,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4">
         <v>36847</v>
@@ -2245,10 +2257,10 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L4">
         <v>150025</v>
@@ -2292,10 +2304,10 @@
         <v>629736</v>
       </c>
       <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
       </c>
       <c r="D5">
         <v>39883</v>
@@ -2316,10 +2328,10 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L5">
         <v>108087</v>
@@ -2363,10 +2375,10 @@
         <v>629736</v>
       </c>
       <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
         <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
       </c>
       <c r="D6">
         <v>68838</v>
@@ -2387,10 +2399,10 @@
         <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L6">
         <v>107737</v>
@@ -2434,10 +2446,10 @@
         <v>629736</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D7" s="4">
         <v>18663</v>
@@ -2455,13 +2467,13 @@
         <v>594</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L7" s="4">
         <v>155756</v>
@@ -2505,10 +2517,10 @@
         <v>629736</v>
       </c>
       <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
         <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
       </c>
       <c r="D8">
         <v>69747</v>
@@ -2529,10 +2541,10 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L8">
         <v>130120</v>
@@ -2576,10 +2588,10 @@
         <v>629745</v>
       </c>
       <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
         <v>152</v>
-      </c>
-      <c r="C9" t="s">
-        <v>153</v>
       </c>
       <c r="D9">
         <v>69289</v>
@@ -2600,7 +2612,7 @@
         <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L9">
         <v>131893</v>
@@ -2614,10 +2626,10 @@
         <v>629739</v>
       </c>
       <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
         <v>144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>145</v>
       </c>
       <c r="D10">
         <v>69289</v>
@@ -2638,7 +2650,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L10">
         <v>35251</v>
@@ -2652,10 +2664,10 @@
         <v>629739</v>
       </c>
       <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
         <v>144</v>
-      </c>
-      <c r="C11" t="s">
-        <v>145</v>
       </c>
       <c r="D11">
         <v>56148</v>
@@ -2676,7 +2688,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="L11">
         <v>40406</v>
@@ -2690,10 +2702,10 @@
         <v>629748</v>
       </c>
       <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
         <v>156</v>
-      </c>
-      <c r="C12" t="s">
-        <v>157</v>
       </c>
       <c r="D12">
         <v>40552</v>
@@ -2714,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L12">
         <v>145535</v>
@@ -2728,10 +2740,10 @@
         <v>629742</v>
       </c>
       <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
         <v>148</v>
-      </c>
-      <c r="C13" t="s">
-        <v>149</v>
       </c>
       <c r="D13">
         <v>40552</v>
@@ -2752,7 +2764,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L13">
         <v>106236</v>
@@ -2766,10 +2778,10 @@
         <v>629745</v>
       </c>
       <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
         <v>152</v>
-      </c>
-      <c r="C14" t="s">
-        <v>153</v>
       </c>
       <c r="D14">
         <v>40552</v>
@@ -2790,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L14">
         <v>134608</v>
@@ -2804,10 +2816,10 @@
         <v>629748</v>
       </c>
       <c r="B15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
         <v>156</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
       </c>
       <c r="D15">
         <v>49704</v>
@@ -2828,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L15">
         <v>164010</v>
@@ -2842,10 +2854,10 @@
         <v>629742</v>
       </c>
       <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
         <v>148</v>
-      </c>
-      <c r="C16" t="s">
-        <v>149</v>
       </c>
       <c r="D16">
         <v>49704</v>
@@ -2866,7 +2878,7 @@
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L16">
         <v>96828</v>
@@ -2880,10 +2892,10 @@
         <v>629748</v>
       </c>
       <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
         <v>156</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
       </c>
       <c r="D17">
         <v>49704</v>
@@ -2904,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L17">
         <v>155140</v>
@@ -2918,10 +2930,10 @@
         <v>629742</v>
       </c>
       <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
         <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>149</v>
       </c>
       <c r="D18">
         <v>188520</v>
@@ -2942,7 +2954,7 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L18">
         <v>124198</v>
@@ -2956,10 +2968,10 @@
         <v>629745</v>
       </c>
       <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s">
         <v>152</v>
-      </c>
-      <c r="C19" t="s">
-        <v>153</v>
       </c>
       <c r="D19">
         <v>95073</v>
@@ -2991,10 +3003,10 @@
         <v>629742</v>
       </c>
       <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
         <v>148</v>
-      </c>
-      <c r="C20" t="s">
-        <v>149</v>
       </c>
       <c r="D20">
         <v>95073</v>
@@ -3015,7 +3027,7 @@
         <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L20">
         <v>60750</v>
@@ -3029,10 +3041,10 @@
         <v>629748</v>
       </c>
       <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
         <v>156</v>
-      </c>
-      <c r="C21" t="s">
-        <v>157</v>
       </c>
       <c r="D21">
         <v>95073</v>
@@ -3056,7 +3068,7 @@
         <v>1048</v>
       </c>
       <c r="M21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -3067,7 +3079,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22">
         <v>95073</v>
@@ -3085,16 +3097,16 @@
         <v>209</v>
       </c>
       <c r="I22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L22">
         <v>1047</v>
       </c>
       <c r="M22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
@@ -3102,10 +3114,10 @@
         <v>629745</v>
       </c>
       <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
         <v>152</v>
-      </c>
-      <c r="C23" t="s">
-        <v>153</v>
       </c>
       <c r="D23">
         <v>40552</v>
@@ -3117,7 +3129,7 @@
         <v>200293760</v>
       </c>
       <c r="G23" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H23">
         <v>869</v>
@@ -3126,7 +3138,7 @@
         <v>12</v>
       </c>
       <c r="J23" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L23">
         <v>120827</v>
@@ -3140,10 +3152,10 @@
         <v>629745</v>
       </c>
       <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
         <v>152</v>
-      </c>
-      <c r="C24" t="s">
-        <v>153</v>
       </c>
       <c r="D24">
         <v>40552</v>
@@ -3155,7 +3167,7 @@
         <v>200293760</v>
       </c>
       <c r="G24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H24">
         <v>223</v>
@@ -3164,7 +3176,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L24">
         <v>69830</v>
@@ -3178,10 +3190,10 @@
         <v>629748</v>
       </c>
       <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
         <v>156</v>
-      </c>
-      <c r="C25" t="s">
-        <v>157</v>
       </c>
       <c r="D25">
         <v>39883</v>
@@ -3202,7 +3214,7 @@
         <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L25">
         <v>129688</v>
@@ -3216,10 +3228,10 @@
         <v>629745</v>
       </c>
       <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
         <v>152</v>
-      </c>
-      <c r="C26" t="s">
-        <v>153</v>
       </c>
       <c r="D26">
         <v>39883</v>
@@ -3240,7 +3252,7 @@
         <v>48</v>
       </c>
       <c r="J26" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L26">
         <v>107961</v>
@@ -3254,10 +3266,10 @@
         <v>629745</v>
       </c>
       <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
         <v>152</v>
-      </c>
-      <c r="C27" t="s">
-        <v>153</v>
       </c>
       <c r="D27">
         <v>39883</v>
@@ -3278,7 +3290,7 @@
         <v>48</v>
       </c>
       <c r="J27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L27">
         <v>108087</v>
@@ -3292,10 +3304,10 @@
         <v>629745</v>
       </c>
       <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
         <v>152</v>
-      </c>
-      <c r="C28" t="s">
-        <v>153</v>
       </c>
       <c r="D28">
         <v>39883</v>
@@ -3316,7 +3328,7 @@
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L28">
         <v>134138</v>
@@ -3330,10 +3342,10 @@
         <v>629742</v>
       </c>
       <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
         <v>148</v>
-      </c>
-      <c r="C29" t="s">
-        <v>149</v>
       </c>
       <c r="D29">
         <v>39883</v>
@@ -3354,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L29">
         <v>74165</v>
@@ -3368,10 +3380,10 @@
         <v>629745</v>
       </c>
       <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
         <v>152</v>
-      </c>
-      <c r="C30" t="s">
-        <v>153</v>
       </c>
       <c r="D30">
         <v>65038</v>
@@ -3392,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L30">
         <v>101580</v>
@@ -3406,10 +3418,10 @@
         <v>629745</v>
       </c>
       <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
         <v>152</v>
-      </c>
-      <c r="C31" t="s">
-        <v>153</v>
       </c>
       <c r="D31">
         <v>36847</v>
@@ -3430,7 +3442,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L31">
         <v>101407</v>
@@ -3444,10 +3456,10 @@
         <v>629745</v>
       </c>
       <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
         <v>152</v>
-      </c>
-      <c r="C32" t="s">
-        <v>153</v>
       </c>
       <c r="D32">
         <v>36847</v>
@@ -3468,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L32">
         <v>150025</v>
@@ -3482,10 +3494,10 @@
         <v>629748</v>
       </c>
       <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
         <v>156</v>
-      </c>
-      <c r="C33" t="s">
-        <v>157</v>
       </c>
       <c r="D33">
         <v>36847</v>
@@ -3506,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L33">
         <v>145224</v>
@@ -3520,10 +3532,10 @@
         <v>629745</v>
       </c>
       <c r="B34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" t="s">
         <v>152</v>
-      </c>
-      <c r="C34" t="s">
-        <v>153</v>
       </c>
       <c r="D34">
         <v>36847</v>
@@ -3544,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L34">
         <v>109403</v>
@@ -3558,10 +3570,10 @@
         <v>629745</v>
       </c>
       <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
         <v>152</v>
-      </c>
-      <c r="C35" t="s">
-        <v>153</v>
       </c>
       <c r="D35">
         <v>69747</v>
@@ -3582,7 +3594,7 @@
         <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L35">
         <v>130120</v>
@@ -3596,10 +3608,10 @@
         <v>629745</v>
       </c>
       <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
         <v>152</v>
-      </c>
-      <c r="C36" t="s">
-        <v>153</v>
       </c>
       <c r="D36">
         <v>69747</v>
@@ -3620,7 +3632,7 @@
         <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L36">
         <v>87139</v>
@@ -3634,10 +3646,10 @@
         <v>629748</v>
       </c>
       <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
         <v>156</v>
-      </c>
-      <c r="C37" t="s">
-        <v>157</v>
       </c>
       <c r="D37">
         <v>65038</v>
@@ -3658,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L37">
         <v>145200</v>
@@ -3672,10 +3684,10 @@
         <v>629745</v>
       </c>
       <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
         <v>152</v>
-      </c>
-      <c r="C38" t="s">
-        <v>153</v>
       </c>
       <c r="D38">
         <v>65038</v>
@@ -3696,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L38">
         <v>149851</v>
@@ -3710,10 +3722,10 @@
         <v>629748</v>
       </c>
       <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
         <v>156</v>
-      </c>
-      <c r="C39" t="s">
-        <v>157</v>
       </c>
       <c r="D39">
         <v>65038</v>
@@ -3734,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L39">
         <v>169475</v>
@@ -3748,10 +3760,10 @@
         <v>629745</v>
       </c>
       <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
         <v>152</v>
-      </c>
-      <c r="C40" t="s">
-        <v>153</v>
       </c>
       <c r="D40">
         <v>40552</v>
@@ -3772,7 +3784,7 @@
         <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L40">
         <v>162160</v>
@@ -3786,86 +3798,86 @@
         <v>629745</v>
       </c>
       <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
         <v>152</v>
       </c>
-      <c r="C41" t="s">
-        <v>153</v>
-      </c>
       <c r="D41">
-        <v>59650</v>
+        <v>41166</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F41">
-        <v>291299</v>
+        <v>263293</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H41">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="I41" t="s">
         <v>178</v>
       </c>
       <c r="J41" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L41">
-        <v>120917</v>
+        <v>166499</v>
       </c>
       <c r="M41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>629745</v>
-      </c>
-      <c r="B42" t="s">
-        <v>152</v>
+        <v>629749</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D42">
-        <v>41166</v>
+        <v>39162</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="F42">
-        <v>263293</v>
+        <v>342703</v>
       </c>
       <c r="G42" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H42">
-        <v>589</v>
+        <v>1330</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="L42">
-        <v>166499</v>
+        <v>51513</v>
       </c>
       <c r="M42" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>629749</v>
+        <v>629746</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D43">
         <v>39162</v>
@@ -3886,51 +3898,51 @@
         <v>55</v>
       </c>
       <c r="J43" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L43">
-        <v>51513</v>
+        <v>164089</v>
       </c>
       <c r="M43" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>629746</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
+        <v>629748</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D44">
-        <v>39162</v>
+        <v>40552</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F44">
-        <v>342703</v>
+        <v>306380</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H44">
-        <v>1330</v>
+        <v>223</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L44">
-        <v>164089</v>
+        <v>150091</v>
       </c>
       <c r="M44" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
@@ -3938,75 +3950,75 @@
         <v>629748</v>
       </c>
       <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
         <v>156</v>
       </c>
-      <c r="C45" t="s">
-        <v>157</v>
-      </c>
       <c r="D45">
-        <v>40552</v>
+        <v>56148</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>306380</v>
+        <v>294359</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="I45" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J45" t="s">
-        <v>460</v>
+        <v>181</v>
       </c>
       <c r="L45">
-        <v>150091</v>
+        <v>155892</v>
       </c>
       <c r="M45" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>629748</v>
+        <v>629745</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D46">
-        <v>56148</v>
+        <v>18663</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="F46">
-        <v>294359</v>
+        <v>312178</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="H46">
-        <v>114</v>
+        <v>594</v>
       </c>
       <c r="I46" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" t="s">
-        <v>182</v>
+        <v>172</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="L46">
-        <v>155892</v>
+        <v>152057</v>
       </c>
       <c r="M46" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
@@ -4014,10 +4026,10 @@
         <v>629745</v>
       </c>
       <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
         <v>152</v>
-      </c>
-      <c r="C47" t="s">
-        <v>153</v>
       </c>
       <c r="D47">
         <v>18663</v>
@@ -4035,141 +4047,141 @@
         <v>594</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>504</v>
+        <v>172</v>
+      </c>
+      <c r="J47" t="s">
+        <v>461</v>
       </c>
       <c r="L47">
-        <v>152057</v>
+        <v>164002</v>
       </c>
       <c r="M47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>629745</v>
-      </c>
-      <c r="B48" t="s">
-        <v>152</v>
+        <v>629759</v>
+      </c>
+      <c r="B48">
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48">
+        <v>318</v>
+      </c>
+      <c r="D48" s="3">
         <v>18663</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>312178</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>594</v>
       </c>
-      <c r="I48" t="s">
-        <v>173</v>
+      <c r="I48" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="J48" t="s">
-        <v>464</v>
-      </c>
-      <c r="L48">
-        <v>164002</v>
-      </c>
-      <c r="M48" t="s">
-        <v>78</v>
+        <v>484</v>
+      </c>
+      <c r="L48" s="4">
+        <v>160046</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>629759</v>
+        <v>629750</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
-      </c>
-      <c r="D49" s="3">
-        <v>18663</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="3">
-        <v>312178</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H49" s="3">
-        <v>594</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J49" t="s">
-        <v>487</v>
-      </c>
-      <c r="L49" s="4">
-        <v>160046</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>79</v>
+        <v>158</v>
+      </c>
+      <c r="D49">
+        <v>36847</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>280330</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>628</v>
+      </c>
+      <c r="I49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="L49">
+        <v>123786</v>
+      </c>
+      <c r="M49" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>629750</v>
+        <v>629757</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D50">
-        <v>36847</v>
+        <v>39527</v>
       </c>
       <c r="E50" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="F50">
-        <v>280330</v>
+        <v>328098</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="H50">
-        <v>628</v>
+        <v>1330</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>467</v>
+        <v>55</v>
+      </c>
+      <c r="J50" t="s">
+        <v>496</v>
       </c>
       <c r="L50">
-        <v>123786</v>
+        <v>50023</v>
       </c>
       <c r="M50" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>629757</v>
+        <v>629746</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D51">
         <v>39527</v>
@@ -4190,24 +4202,24 @@
         <v>55</v>
       </c>
       <c r="J51" t="s">
-        <v>499</v>
+        <v>179</v>
       </c>
       <c r="L51">
-        <v>50023</v>
+        <v>123591</v>
       </c>
       <c r="M51" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>629746</v>
+        <v>629750</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D52">
         <v>39527</v>
@@ -4227,49 +4239,55 @@
       <c r="I52" t="s">
         <v>55</v>
       </c>
-      <c r="J52" t="s">
-        <v>180</v>
-      </c>
       <c r="L52">
-        <v>123591</v>
+        <v>108189</v>
       </c>
       <c r="M52" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>629750</v>
-      </c>
-      <c r="B53">
-        <v>9</v>
+        <v>629762</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D53">
-        <v>39527</v>
+        <v>53869</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F53">
-        <v>328098</v>
+        <v>265065</v>
       </c>
       <c r="G53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H53">
-        <v>1330</v>
+        <v>772</v>
       </c>
       <c r="I53" t="s">
-        <v>55</v>
+        <v>185</v>
+      </c>
+      <c r="K53" t="s">
+        <v>195</v>
       </c>
       <c r="L53">
-        <v>108189</v>
+        <v>112424</v>
       </c>
       <c r="M53" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="N53">
+        <v>95591</v>
+      </c>
+      <c r="O53" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
@@ -4277,43 +4295,46 @@
         <v>629762</v>
       </c>
       <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
         <v>166</v>
       </c>
-      <c r="C54" t="s">
-        <v>167</v>
-      </c>
       <c r="D54">
-        <v>53869</v>
+        <v>36847</v>
       </c>
       <c r="E54" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>265065</v>
+        <v>306606</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H54">
-        <v>772</v>
+        <v>223</v>
       </c>
       <c r="I54" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>466</v>
       </c>
       <c r="K54" t="s">
         <v>196</v>
       </c>
       <c r="L54">
-        <v>112424</v>
+        <v>38739</v>
       </c>
       <c r="M54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N54">
-        <v>95591</v>
+        <v>40310</v>
       </c>
       <c r="O54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
@@ -4321,93 +4342,84 @@
         <v>629762</v>
       </c>
       <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
         <v>166</v>
       </c>
-      <c r="C55" t="s">
-        <v>167</v>
-      </c>
       <c r="D55">
-        <v>36847</v>
+        <v>41166</v>
       </c>
       <c r="E55" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="F55">
-        <v>306606</v>
+        <v>263293</v>
       </c>
       <c r="G55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H55">
-        <v>223</v>
+        <v>589</v>
       </c>
       <c r="I55" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="J55" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="K55" t="s">
-        <v>197</v>
+        <v>467</v>
       </c>
       <c r="L55">
-        <v>38739</v>
+        <v>103221</v>
       </c>
       <c r="M55" t="s">
-        <v>106</v>
+        <v>468</v>
       </c>
       <c r="N55">
-        <v>40310</v>
+        <v>34693</v>
       </c>
       <c r="O55" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>629762</v>
-      </c>
-      <c r="B56" t="s">
-        <v>166</v>
+        <v>629744</v>
+      </c>
+      <c r="B56">
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D56">
-        <v>41166</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="F56">
-        <v>263293</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="H56">
-        <v>589</v>
+        <v>200</v>
       </c>
       <c r="I56" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="J56" t="s">
-        <v>462</v>
-      </c>
-      <c r="K56" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="L56">
-        <v>103221</v>
+        <v>1000</v>
       </c>
       <c r="M56" t="s">
-        <v>471</v>
-      </c>
-      <c r="N56">
-        <v>34693</v>
-      </c>
-      <c r="O56" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
@@ -4418,31 +4430,31 @@
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57">
         <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H57">
         <v>200</v>
       </c>
       <c r="I57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J57" t="s">
         <v>433</v>
       </c>
       <c r="L57">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M57" t="s">
         <v>250</v>
@@ -4450,37 +4462,37 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>629744</v>
+        <v>629747</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D58">
         <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H58">
         <v>200</v>
       </c>
       <c r="I58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L58">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M58" t="s">
         <v>251</v>
@@ -4494,31 +4506,31 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D59">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
         <v>206</v>
       </c>
       <c r="H59">
-        <v>200</v>
-      </c>
-      <c r="I59" t="s">
-        <v>237</v>
-      </c>
-      <c r="J59" t="s">
-        <v>434</v>
+        <v>201</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="L59">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M59" t="s">
         <v>252</v>
@@ -4526,113 +4538,110 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>629747</v>
+        <v>629744</v>
       </c>
       <c r="B60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D60">
         <v>101</v>
       </c>
       <c r="E60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H60">
         <v>201</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L60">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="M60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>629744</v>
+        <v>629747</v>
       </c>
       <c r="B61">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D61">
         <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H61">
         <v>201</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>472</v>
+        <v>238</v>
       </c>
       <c r="L61">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M61" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>629747</v>
+        <v>629756</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D62">
-        <v>101</v>
+        <v>188520</v>
       </c>
       <c r="E62" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H62">
-        <v>201</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>239</v>
+        <v>210</v>
+      </c>
+      <c r="I62" t="s">
+        <v>297</v>
       </c>
       <c r="L62">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="M62" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
@@ -4643,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63">
         <v>188520</v>
@@ -4655,30 +4664,33 @@
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H63">
         <v>210</v>
       </c>
       <c r="I63" t="s">
-        <v>298</v>
+        <v>470</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>486</v>
       </c>
       <c r="L63">
-        <v>1009</v>
+        <v>1053</v>
       </c>
       <c r="M63" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>629756</v>
+        <v>629741</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D64">
         <v>188520</v>
@@ -4687,98 +4699,98 @@
         <v>128</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>313507</v>
       </c>
       <c r="G64" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="H64">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I64" t="s">
-        <v>473</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>489</v>
+        <v>239</v>
+      </c>
+      <c r="J64" t="s">
+        <v>434</v>
       </c>
       <c r="L64">
-        <v>1053</v>
+        <v>1007</v>
       </c>
       <c r="M64" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>629741</v>
+        <v>629738</v>
       </c>
       <c r="B65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D65">
-        <v>188520</v>
+        <v>105</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="F65">
-        <v>313507</v>
+        <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="H65">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I65" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J65" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L65">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="M65" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>629738</v>
+        <v>629744</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D66">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
         <v>231</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H66">
         <v>200</v>
       </c>
       <c r="I66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J66" t="s">
         <v>437</v>
       </c>
       <c r="L66">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M66" t="s">
         <v>259</v>
@@ -4792,31 +4804,31 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67">
         <v>106</v>
       </c>
       <c r="E67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F67">
         <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H67">
         <v>200</v>
       </c>
       <c r="I67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J67" t="s">
         <v>438</v>
       </c>
       <c r="L67">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="M67" t="s">
         <v>260</v>
@@ -4824,114 +4836,114 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>629744</v>
+        <v>629747</v>
       </c>
       <c r="B68">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D68">
         <v>106</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F68">
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H68">
         <v>200</v>
       </c>
       <c r="I68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J68" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L68">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M68" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>629747</v>
-      </c>
-      <c r="B69">
-        <v>26</v>
-      </c>
-      <c r="C69" t="s">
-        <v>155</v>
+      <c r="A69" s="3">
+        <v>629754</v>
+      </c>
+      <c r="B69" s="6">
+        <v>13</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="D69">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E69" t="s">
         <v>232</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
         <v>213</v>
       </c>
       <c r="H69">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I69" t="s">
-        <v>237</v>
-      </c>
-      <c r="J69" t="s">
-        <v>438</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J69" s="6"/>
       <c r="L69">
-        <v>1013</v>
+        <v>1054</v>
       </c>
       <c r="M69" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A70" s="3">
-        <v>629754</v>
-      </c>
-      <c r="B70" s="6">
-        <v>13</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>160</v>
+      <c r="A70">
+        <v>629744</v>
+      </c>
+      <c r="B70">
+        <v>25</v>
+      </c>
+      <c r="C70" t="s">
+        <v>150</v>
       </c>
       <c r="D70">
         <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F70">
         <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H70">
         <v>203</v>
       </c>
       <c r="I70" t="s">
-        <v>241</v>
-      </c>
-      <c r="J70" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="L70">
-        <v>1054</v>
+        <v>1014</v>
       </c>
       <c r="M70" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
@@ -4942,31 +4954,28 @@
         <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D71">
         <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F71">
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H71">
         <v>203</v>
       </c>
       <c r="I71" t="s">
-        <v>241</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>474</v>
+        <v>240</v>
       </c>
       <c r="L71">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M71" t="s">
         <v>263</v>
@@ -4974,22 +4983,22 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>629744</v>
+        <v>629741</v>
       </c>
       <c r="B72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D72">
         <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G72" t="s">
         <v>214</v>
@@ -4998,10 +5007,13 @@
         <v>203</v>
       </c>
       <c r="I72" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="J72" t="s">
+        <v>298</v>
       </c>
       <c r="L72">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="M72" t="s">
         <v>264</v>
@@ -5009,37 +5021,34 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>629741</v>
+        <v>629744</v>
       </c>
       <c r="B73">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D73">
         <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F73">
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H73">
         <v>203</v>
       </c>
       <c r="I73" t="s">
-        <v>241</v>
-      </c>
-      <c r="J73" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="L73">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="M73" t="s">
         <v>265</v>
@@ -5047,34 +5056,37 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>629744</v>
+        <v>629747</v>
       </c>
       <c r="B74">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D74">
         <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F74">
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H74">
         <v>203</v>
       </c>
       <c r="I74" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="J74" t="s">
+        <v>299</v>
       </c>
       <c r="L74">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="M74" t="s">
         <v>266</v>
@@ -5088,31 +5100,28 @@
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D75">
         <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H75">
         <v>203</v>
       </c>
       <c r="I75" t="s">
-        <v>241</v>
-      </c>
-      <c r="J75" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="L75">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="M75" t="s">
         <v>267</v>
@@ -5120,34 +5129,37 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>629747</v>
+        <v>629738</v>
       </c>
       <c r="B76">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D76">
         <v>107</v>
       </c>
       <c r="E76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
         <v>215</v>
       </c>
       <c r="H76">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I76" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="J76" t="s">
+        <v>472</v>
       </c>
       <c r="L76">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M76" t="s">
         <v>268</v>
@@ -5155,37 +5167,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>629738</v>
+        <v>629744</v>
       </c>
       <c r="B77">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D77">
         <v>107</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F77">
         <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H77">
         <v>204</v>
       </c>
       <c r="I77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J77" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L77">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M77" t="s">
         <v>269</v>
@@ -5199,31 +5211,31 @@
         <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78">
         <v>107</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F78">
         <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H78">
         <v>204</v>
       </c>
       <c r="I78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J78" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L78">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="M78" t="s">
         <v>270</v>
@@ -5237,31 +5249,31 @@
         <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79">
         <v>107</v>
       </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F79">
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H79">
         <v>204</v>
       </c>
       <c r="I79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J79" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L79">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="M79" t="s">
         <v>271</v>
@@ -5269,37 +5281,37 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>629744</v>
+        <v>629747</v>
       </c>
       <c r="B80">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D80">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
         <v>216</v>
       </c>
       <c r="H80">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I80" t="s">
         <v>243</v>
       </c>
       <c r="J80" t="s">
-        <v>478</v>
+        <v>300</v>
       </c>
       <c r="L80">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M80" t="s">
         <v>272</v>
@@ -5307,37 +5319,34 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>629747</v>
+        <v>629744</v>
       </c>
       <c r="B81">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D81">
         <v>109</v>
       </c>
       <c r="E81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F81">
         <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H81">
         <v>205</v>
       </c>
       <c r="I81" t="s">
-        <v>244</v>
-      </c>
-      <c r="J81" t="s">
-        <v>301</v>
+        <v>243</v>
       </c>
       <c r="L81">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M81" t="s">
         <v>273</v>
@@ -5345,34 +5354,34 @@
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>629744</v>
+        <v>629758</v>
       </c>
       <c r="B82">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D82">
         <v>109</v>
       </c>
       <c r="E82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F82">
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H82">
         <v>205</v>
       </c>
       <c r="I82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L82">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="M82" t="s">
         <v>274</v>
@@ -5380,34 +5389,34 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>629758</v>
+        <v>629759</v>
       </c>
       <c r="B83">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="D83">
         <v>109</v>
       </c>
       <c r="E83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F83">
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H83">
         <v>205</v>
       </c>
       <c r="I83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L83">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M83" t="s">
         <v>275</v>
@@ -5415,72 +5424,75 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>629759</v>
+        <v>629744</v>
       </c>
       <c r="B84">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>150</v>
       </c>
       <c r="D84">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>235</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
         <v>217</v>
       </c>
       <c r="H84">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I84" t="s">
         <v>244</v>
       </c>
+      <c r="J84" s="7" t="s">
+        <v>487</v>
+      </c>
       <c r="L84">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="M84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>629744</v>
+        <v>629759</v>
       </c>
       <c r="B85">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
       <c r="D85">
         <v>110</v>
       </c>
       <c r="E85" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F85">
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H85">
         <v>206</v>
       </c>
       <c r="I85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L85">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="M85" t="s">
         <v>278</v>
@@ -5488,87 +5500,87 @@
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>629759</v>
+        <v>630356</v>
       </c>
       <c r="B86">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>319</v>
+        <v>167</v>
       </c>
       <c r="D86">
         <v>110</v>
       </c>
       <c r="E86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F86">
         <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H86">
         <v>206</v>
       </c>
       <c r="I86" t="s">
-        <v>245</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>490</v>
+        <v>244</v>
+      </c>
+      <c r="J86" t="s">
+        <v>279</v>
+      </c>
+      <c r="K86" t="s">
+        <v>301</v>
       </c>
       <c r="L86">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M86" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+      <c r="N86">
+        <v>1028</v>
+      </c>
+      <c r="O86" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>630356</v>
+        <v>629744</v>
       </c>
       <c r="B87">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D87">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E87" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
         <v>218</v>
       </c>
       <c r="H87">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I87" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J87" t="s">
+        <v>495</v>
+      </c>
+      <c r="L87">
+        <v>1032</v>
+      </c>
+      <c r="M87" t="s">
         <v>280</v>
-      </c>
-      <c r="K87" t="s">
-        <v>302</v>
-      </c>
-      <c r="L87">
-        <v>1029</v>
-      </c>
-      <c r="M87" t="s">
-        <v>278</v>
-      </c>
-      <c r="N87">
-        <v>1028</v>
-      </c>
-      <c r="O87" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.45">
@@ -5579,31 +5591,31 @@
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D88">
         <v>100</v>
       </c>
       <c r="E88" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F88">
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H88">
         <v>203</v>
       </c>
       <c r="I88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J88" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
       <c r="L88">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="M88" t="s">
         <v>281</v>
@@ -5611,40 +5623,40 @@
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>629744</v>
+        <v>629747</v>
       </c>
       <c r="B89">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D89">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
         <v>219</v>
       </c>
       <c r="H89">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I89" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J89" t="s">
-        <v>440</v>
+        <v>302</v>
       </c>
       <c r="L89">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="M89" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.45">
@@ -5655,31 +5667,28 @@
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D90">
         <v>108</v>
       </c>
       <c r="E90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F90">
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H90">
         <v>207</v>
       </c>
       <c r="I90" t="s">
-        <v>246</v>
-      </c>
-      <c r="J90" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="L90">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M90" t="s">
         <v>284</v>
@@ -5693,216 +5702,219 @@
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D91">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E91" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F91">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H91">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I91" t="s">
         <v>246</v>
       </c>
+      <c r="J91" s="8" t="s">
+        <v>477</v>
+      </c>
       <c r="L91">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="M91" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>629747</v>
+        <v>629732</v>
       </c>
       <c r="B92">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D92">
         <v>102</v>
       </c>
       <c r="E92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F92">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H92">
         <v>208</v>
       </c>
       <c r="I92" t="s">
-        <v>247</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>480</v>
+        <v>246</v>
+      </c>
+      <c r="J92" t="s">
+        <v>303</v>
+      </c>
+      <c r="K92" t="s">
+        <v>285</v>
       </c>
       <c r="L92">
+        <v>1049</v>
+      </c>
+      <c r="M92" t="s">
+        <v>304</v>
+      </c>
+      <c r="N92">
+        <v>1039</v>
+      </c>
+      <c r="O92" t="s">
+        <v>287</v>
+      </c>
+      <c r="P92">
+        <v>1050</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>305</v>
+      </c>
+      <c r="R92">
         <v>1040</v>
       </c>
-      <c r="M92" t="s">
-        <v>289</v>
+      <c r="S92" t="s">
+        <v>288</v>
+      </c>
+      <c r="T92">
+        <v>1018</v>
+      </c>
+      <c r="U92" t="s">
+        <v>266</v>
+      </c>
+      <c r="V92">
+        <v>1038</v>
+      </c>
+      <c r="W92" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>629732</v>
+        <v>629744</v>
       </c>
       <c r="B93">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D93">
         <v>102</v>
       </c>
       <c r="E93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F93">
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H93">
         <v>208</v>
       </c>
       <c r="I93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J93" t="s">
-        <v>304</v>
-      </c>
-      <c r="K93" t="s">
-        <v>286</v>
+        <v>476</v>
       </c>
       <c r="L93">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="M93" t="s">
-        <v>305</v>
-      </c>
-      <c r="N93">
-        <v>1039</v>
-      </c>
-      <c r="O93" t="s">
-        <v>288</v>
-      </c>
-      <c r="P93">
-        <v>1050</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>306</v>
-      </c>
-      <c r="R93">
-        <v>1040</v>
-      </c>
-      <c r="S93" t="s">
-        <v>289</v>
-      </c>
-      <c r="T93">
-        <v>1018</v>
-      </c>
-      <c r="U93" t="s">
-        <v>267</v>
-      </c>
-      <c r="V93">
-        <v>1038</v>
-      </c>
-      <c r="W93" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>629744</v>
+        <v>629738</v>
       </c>
       <c r="B94">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D94">
         <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F94">
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H94">
         <v>208</v>
       </c>
       <c r="I94" t="s">
-        <v>247</v>
-      </c>
-      <c r="J94" t="s">
-        <v>479</v>
+        <v>246</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="L94">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M94" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>629738</v>
+        <v>629759</v>
       </c>
       <c r="B95">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>318</v>
       </c>
       <c r="D95">
         <v>102</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F95">
-        <v>16</v>
+        <v>200000018</v>
       </c>
       <c r="G95" t="s">
-        <v>221</v>
+        <v>498</v>
       </c>
       <c r="H95">
         <v>208</v>
       </c>
       <c r="I95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L95">
-        <v>1038</v>
+        <v>1055</v>
       </c>
       <c r="M95" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.45">
@@ -5913,31 +5925,28 @@
         <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D96">
         <v>102</v>
       </c>
       <c r="E96" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F96">
         <v>200000018</v>
       </c>
       <c r="G96" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H96">
         <v>208</v>
       </c>
       <c r="I96" t="s">
-        <v>247</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>481</v>
+        <v>246</v>
       </c>
       <c r="L96">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="M96" t="s">
         <v>323</v>
@@ -5951,28 +5960,28 @@
         <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D97">
         <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F97">
         <v>200000018</v>
       </c>
       <c r="G97" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H97">
         <v>208</v>
       </c>
       <c r="I97" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L97">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="M97" t="s">
         <v>324</v>
@@ -5980,37 +5989,40 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>629759</v>
+        <v>629747</v>
       </c>
       <c r="B98">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="D98">
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F98">
-        <v>200000018</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>501</v>
+        <v>223</v>
       </c>
       <c r="H98">
         <v>208</v>
       </c>
       <c r="I98" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="J98" t="s">
+        <v>479</v>
       </c>
       <c r="L98">
-        <v>1057</v>
+        <v>1041</v>
       </c>
       <c r="M98" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.45">
@@ -6021,31 +6033,28 @@
         <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D99">
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F99">
         <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H99">
         <v>208</v>
       </c>
       <c r="I99" t="s">
-        <v>247</v>
-      </c>
-      <c r="J99" t="s">
-        <v>482</v>
+        <v>246</v>
       </c>
       <c r="L99">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M99" t="s">
         <v>290</v>
@@ -6059,210 +6068,213 @@
         <v>26</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D100">
         <v>102</v>
       </c>
       <c r="E100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F100">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G100" t="s">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="H100">
         <v>208</v>
       </c>
       <c r="I100" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L100">
-        <v>1042</v>
+        <v>1058</v>
       </c>
       <c r="M100" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>629747</v>
+        <v>629756</v>
       </c>
       <c r="B101">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>315</v>
       </c>
       <c r="D101">
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F101">
         <v>21</v>
       </c>
       <c r="G101" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H101">
         <v>208</v>
       </c>
       <c r="I101" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>481</v>
       </c>
       <c r="L101">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="M101" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>629756</v>
+        <v>629747</v>
       </c>
       <c r="B102">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C102" t="s">
-        <v>316</v>
+        <v>154</v>
       </c>
       <c r="D102">
         <v>102</v>
       </c>
       <c r="E102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F102">
         <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H102">
         <v>208</v>
       </c>
       <c r="I102" t="s">
-        <v>247</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>484</v>
+        <v>246</v>
       </c>
       <c r="L102">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="M102" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A103">
-        <v>629747</v>
+        <v>629735</v>
       </c>
       <c r="B103">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D103">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F103">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>483</v>
+        <v>224</v>
       </c>
       <c r="H103">
         <v>208</v>
       </c>
       <c r="I103" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="J103" t="s">
+        <v>306</v>
+      </c>
+      <c r="K103" t="s">
+        <v>293</v>
       </c>
       <c r="L103">
+        <v>1041</v>
+      </c>
+      <c r="M103" t="s">
+        <v>289</v>
+      </c>
+      <c r="N103">
+        <v>1042</v>
+      </c>
+      <c r="O103" t="s">
+        <v>290</v>
+      </c>
+      <c r="P103">
+        <v>1051</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>292</v>
+      </c>
+      <c r="R103">
+        <v>1052</v>
+      </c>
+      <c r="S103" t="s">
+        <v>307</v>
+      </c>
+      <c r="T103">
         <v>1043</v>
       </c>
-      <c r="M103" t="s">
-        <v>292</v>
+      <c r="U103" t="s">
+        <v>291</v>
+      </c>
+      <c r="V103">
+        <v>1046</v>
+      </c>
+      <c r="W103" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>629735</v>
+        <v>629747</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D104">
         <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F104">
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H104">
         <v>208</v>
       </c>
       <c r="I104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J104" t="s">
-        <v>307</v>
-      </c>
-      <c r="K104" t="s">
+        <v>482</v>
+      </c>
+      <c r="L104">
+        <v>1046</v>
+      </c>
+      <c r="M104" t="s">
         <v>294</v>
-      </c>
-      <c r="L104">
-        <v>1041</v>
-      </c>
-      <c r="M104" t="s">
-        <v>290</v>
-      </c>
-      <c r="N104">
-        <v>1042</v>
-      </c>
-      <c r="O104" t="s">
-        <v>291</v>
-      </c>
-      <c r="P104">
-        <v>1051</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>293</v>
-      </c>
-      <c r="R104">
-        <v>1052</v>
-      </c>
-      <c r="S104" t="s">
-        <v>308</v>
-      </c>
-      <c r="T104">
-        <v>1043</v>
-      </c>
-      <c r="U104" t="s">
-        <v>292</v>
-      </c>
-      <c r="V104">
-        <v>1046</v>
-      </c>
-      <c r="W104" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.45">
@@ -6273,73 +6285,74 @@
         <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D105">
         <v>102</v>
       </c>
       <c r="E105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F105">
         <v>20</v>
       </c>
       <c r="G105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105">
         <v>208</v>
       </c>
       <c r="I105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J105" t="s">
+        <v>482</v>
+      </c>
+      <c r="L105">
+        <v>1044</v>
+      </c>
+      <c r="M105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A106" s="3">
+        <v>629754</v>
+      </c>
+      <c r="B106" s="3">
+        <v>13</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D106" s="3">
+        <v>53869</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F106" s="3">
+        <v>265065</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H106" s="3">
+        <v>772</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J106" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="L105">
-        <v>1046</v>
-      </c>
-      <c r="M105" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A106">
-        <v>629747</v>
-      </c>
-      <c r="B106">
-        <v>26</v>
-      </c>
-      <c r="C106" t="s">
-        <v>155</v>
-      </c>
-      <c r="D106">
-        <v>102</v>
-      </c>
-      <c r="E106" t="s">
-        <v>228</v>
-      </c>
-      <c r="F106">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>225</v>
-      </c>
-      <c r="H106">
-        <v>208</v>
-      </c>
-      <c r="I106" t="s">
-        <v>247</v>
-      </c>
-      <c r="J106" t="s">
-        <v>485</v>
-      </c>
-      <c r="L106">
-        <v>1044</v>
-      </c>
-      <c r="M106" t="s">
-        <v>293</v>
-      </c>
+      <c r="L106" s="3">
+        <v>95591</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
@@ -6349,7 +6362,7 @@
         <v>13</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D107" s="3">
         <v>53869</v>
@@ -6367,144 +6380,143 @@
         <v>772</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L107" s="3">
-        <v>95591</v>
+        <v>112424</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N107" s="3"/>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A108" s="3">
-        <v>629754</v>
-      </c>
-      <c r="B108" s="3">
-        <v>13</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="3">
+      <c r="A108">
+        <v>629748</v>
+      </c>
+      <c r="B108" t="s">
+        <v>155</v>
+      </c>
+      <c r="C108" t="s">
+        <v>156</v>
+      </c>
+      <c r="D108">
         <v>53869</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" t="s">
         <v>133</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108">
         <v>265065</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" t="s">
         <v>122</v>
       </c>
-      <c r="H108" s="3">
-        <v>772</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="L108" s="3">
-        <v>112424</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N108" s="3"/>
+      <c r="H108">
+        <v>669</v>
+      </c>
+      <c r="I108" t="s">
+        <v>180</v>
+      </c>
+      <c r="J108" t="s">
+        <v>494</v>
+      </c>
+      <c r="L108">
+        <v>167975</v>
+      </c>
+      <c r="M108" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A109">
+      <c r="A109" s="3">
+        <v>629757</v>
+      </c>
+      <c r="B109" s="3">
+        <v>16</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109" s="3">
+        <v>18663</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109">
+        <v>2000312178</v>
+      </c>
+      <c r="G109" t="s">
+        <v>500</v>
+      </c>
+      <c r="H109" s="3">
+        <v>594</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="L109" s="3">
+        <v>130283</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N109" s="3"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A110">
         <v>629748</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" t="s">
         <v>156</v>
       </c>
-      <c r="C109" t="s">
-        <v>157</v>
-      </c>
-      <c r="D109">
-        <v>53869</v>
-      </c>
-      <c r="E109" t="s">
-        <v>133</v>
-      </c>
-      <c r="F109">
-        <v>265065</v>
-      </c>
-      <c r="G109" t="s">
-        <v>122</v>
-      </c>
-      <c r="H109">
-        <v>669</v>
-      </c>
-      <c r="I109" t="s">
-        <v>181</v>
-      </c>
-      <c r="J109" t="s">
-        <v>497</v>
-      </c>
-      <c r="L109">
-        <v>167975</v>
-      </c>
-      <c r="M109" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A110" s="3">
-        <v>629757</v>
-      </c>
-      <c r="B110" s="3">
-        <v>16</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D110" s="3">
+      <c r="D110">
         <v>18663</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" t="s">
         <v>125</v>
       </c>
       <c r="F110">
         <v>2000312178</v>
       </c>
       <c r="G110" t="s">
-        <v>503</v>
-      </c>
-      <c r="H110" s="3">
+        <v>500</v>
+      </c>
+      <c r="H110">
         <v>594</v>
       </c>
-      <c r="I110" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="L110" s="3">
-        <v>130283</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="N110" s="3"/>
+      <c r="I110" t="s">
+        <v>172</v>
+      </c>
+      <c r="J110" t="s">
+        <v>431</v>
+      </c>
+      <c r="L110">
+        <v>151413</v>
+      </c>
+      <c r="M110" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>629748</v>
       </c>
       <c r="B111" t="s">
+        <v>155</v>
+      </c>
+      <c r="C111" t="s">
         <v>156</v>
-      </c>
-      <c r="C111" t="s">
-        <v>157</v>
       </c>
       <c r="D111">
         <v>18663</v>
@@ -6516,59 +6528,21 @@
         <v>2000312178</v>
       </c>
       <c r="G111" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H111">
         <v>594</v>
       </c>
       <c r="I111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J111" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="L111">
-        <v>151413</v>
+        <v>177919</v>
       </c>
       <c r="M111" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A112">
-        <v>629748</v>
-      </c>
-      <c r="B112" t="s">
-        <v>156</v>
-      </c>
-      <c r="C112" t="s">
-        <v>157</v>
-      </c>
-      <c r="D112">
-        <v>18663</v>
-      </c>
-      <c r="E112" t="s">
-        <v>125</v>
-      </c>
-      <c r="F112">
-        <v>2000312178</v>
-      </c>
-      <c r="G112" t="s">
-        <v>503</v>
-      </c>
-      <c r="H112">
-        <v>594</v>
-      </c>
-      <c r="I112" t="s">
-        <v>173</v>
-      </c>
-      <c r="J112" t="s">
-        <v>466</v>
-      </c>
-      <c r="L112">
-        <v>177919</v>
-      </c>
-      <c r="M112" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6583,7 +6557,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6600,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6611,16 +6585,16 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>505</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -6628,16 +6602,16 @@
         <v>629733</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>506</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6648,13 +6622,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>507</v>
       </c>
       <c r="D4">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -6665,16 +6639,16 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>508</v>
       </c>
       <c r="D5">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -6682,16 +6656,16 @@
         <v>629736</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>509</v>
       </c>
       <c r="D6">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -6702,7 +6676,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -6713,16 +6687,16 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8">
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -6730,16 +6704,16 @@
         <v>629739</v>
       </c>
       <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
         <v>144</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
       </c>
       <c r="D9">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -6750,7 +6724,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -6761,16 +6735,16 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>1061</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -6778,16 +6752,16 @@
         <v>629742</v>
       </c>
       <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
         <v>148</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
       </c>
       <c r="D12">
         <v>1061</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -6798,7 +6772,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -6809,16 +6783,16 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>1079</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -6826,16 +6800,16 @@
         <v>629745</v>
       </c>
       <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
         <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
       </c>
       <c r="D15">
         <v>1079</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -6846,13 +6820,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D16">
         <v>1080</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -6863,16 +6837,16 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="D17">
         <v>1080</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -6880,16 +6854,16 @@
         <v>629748</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D18">
         <v>1080</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -6900,13 +6874,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19">
         <v>1081</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -6917,16 +6891,16 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20">
         <v>1083</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -6937,7 +6911,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -6948,7 +6922,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -6959,7 +6933,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -6970,13 +6944,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D24">
         <v>1090</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -6987,7 +6961,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -6998,13 +6972,13 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D26">
         <v>1088</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -7015,13 +6989,13 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D27">
         <v>1087</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -7032,13 +7006,13 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D28">
         <v>1089</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -7049,13 +7023,13 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D29" s="5">
         <v>1091</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -7066,7 +7040,7 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -7077,7 +7051,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -7085,16 +7059,16 @@
         <v>629762</v>
       </c>
       <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
         <v>166</v>
-      </c>
-      <c r="C32" t="s">
-        <v>167</v>
       </c>
       <c r="D32">
         <v>1094</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -7105,16 +7079,16 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33">
         <v>1092</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7285,7 +7259,7 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -7293,7 +7267,7 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -7301,7 +7275,7 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -7309,7 +7283,7 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -7317,7 +7291,7 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -7325,7 +7299,7 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -7333,7 +7307,7 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -7341,7 +7315,7 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -7349,7 +7323,7 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -7357,7 +7331,7 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -7365,7 +7339,7 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -7373,7 +7347,7 @@
         <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -7616,7 +7590,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -7624,7 +7598,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -7632,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -7640,7 +7614,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -7648,7 +7622,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -7656,7 +7630,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -7664,7 +7638,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -7672,7 +7646,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -7680,7 +7654,7 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -7688,7 +7662,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -7696,7 +7670,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -7704,7 +7678,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -7712,7 +7686,7 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -7720,7 +7694,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -7728,7 +7702,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -7736,7 +7710,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -7744,7 +7718,7 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -7752,7 +7726,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -7760,7 +7734,7 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -7768,7 +7742,7 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -7776,7 +7750,7 @@
         <v>301477</v>
       </c>
       <c r="B48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -7784,7 +7758,7 @@
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -7792,7 +7766,7 @@
         <v>200293760</v>
       </c>
       <c r="B50" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -7800,7 +7774,7 @@
         <v>200000018</v>
       </c>
       <c r="B51" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -7808,7 +7782,7 @@
         <v>2000312178</v>
       </c>
       <c r="B52" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -7835,7 +7809,7 @@
         <v>579</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -7879,7 +7853,7 @@
         <v>594</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -7923,10 +7897,10 @@
         <v>1039</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -7934,7 +7908,7 @@
         <v>628</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -7945,7 +7919,7 @@
         <v>589</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -7956,7 +7930,7 @@
         <v>772</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -7967,7 +7941,7 @@
         <v>669</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -7978,10 +7952,10 @@
         <v>200</v>
       </c>
       <c r="B14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" t="s">
         <v>237</v>
-      </c>
-      <c r="C14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -7989,10 +7963,10 @@
         <v>201</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -8000,10 +7974,10 @@
         <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -8011,10 +7985,10 @@
         <v>203</v>
       </c>
       <c r="B17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" t="s">
         <v>241</v>
-      </c>
-      <c r="C17" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -8022,10 +7996,10 @@
         <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -8033,10 +8007,10 @@
         <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -8044,10 +8018,10 @@
         <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -8055,10 +8029,10 @@
         <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -8066,10 +8040,10 @@
         <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -8077,10 +8051,10 @@
         <v>209</v>
       </c>
       <c r="B23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" t="s">
         <v>248</v>
-      </c>
-      <c r="C23" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -8088,10 +8062,10 @@
         <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -8169,7 +8143,7 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -8180,7 +8154,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -8191,7 +8165,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -8202,7 +8176,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -8213,7 +8187,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -8264,7 +8238,7 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -8283,7 +8257,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -8294,7 +8268,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -8305,7 +8279,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -8316,7 +8290,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -8327,7 +8301,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -8346,7 +8320,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -8357,7 +8331,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -8376,7 +8350,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -8387,7 +8361,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -8478,7 +8452,7 @@
         <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -8489,7 +8463,7 @@
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -8500,7 +8474,7 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -8511,7 +8485,7 @@
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -8562,7 +8536,7 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -8573,7 +8547,7 @@
         <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -8584,7 +8558,7 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -8595,7 +8569,7 @@
         <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -8606,7 +8580,7 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -8617,7 +8591,7 @@
         <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -8628,7 +8602,7 @@
         <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -8639,7 +8613,7 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -8650,7 +8624,7 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -8661,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -8672,7 +8646,7 @@
         <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -8683,7 +8657,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -8694,7 +8668,7 @@
         <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -8705,7 +8679,7 @@
         <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -8716,7 +8690,7 @@
         <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -8727,7 +8701,7 @@
         <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -8738,7 +8712,7 @@
         <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -8749,7 +8723,7 @@
         <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -8760,7 +8734,7 @@
         <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -8771,7 +8745,7 @@
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -8782,7 +8756,7 @@
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -8793,7 +8767,7 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -8804,7 +8778,7 @@
         <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -8815,7 +8789,7 @@
         <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -8826,7 +8800,7 @@
         <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -8837,7 +8811,7 @@
         <v>101</v>
       </c>
       <c r="C74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -8848,7 +8822,7 @@
         <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -8859,7 +8833,7 @@
         <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -8870,7 +8844,7 @@
         <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -8881,7 +8855,7 @@
         <v>105</v>
       </c>
       <c r="C78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -8921,10 +8895,10 @@
         <v>1000</v>
       </c>
       <c r="B83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -8932,10 +8906,10 @@
         <v>1001</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -8943,10 +8917,10 @@
         <v>1002</v>
       </c>
       <c r="B85" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -8954,10 +8928,10 @@
         <v>1003</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C86" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -8965,10 +8939,10 @@
         <v>1004</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -8976,10 +8950,10 @@
         <v>1005</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -8987,10 +8961,10 @@
         <v>1007</v>
       </c>
       <c r="B89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C89" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -8998,7 +8972,7 @@
         <v>1008</v>
       </c>
       <c r="B90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -9006,10 +8980,10 @@
         <v>1009</v>
       </c>
       <c r="B91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -9017,10 +8991,10 @@
         <v>1010</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C92" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -9028,10 +9002,10 @@
         <v>1011</v>
       </c>
       <c r="B93" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C93" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -9039,10 +9013,10 @@
         <v>1012</v>
       </c>
       <c r="B94" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C94" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -9050,10 +9024,10 @@
         <v>1013</v>
       </c>
       <c r="B95" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C95" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -9061,10 +9035,10 @@
         <v>1014</v>
       </c>
       <c r="B96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -9072,10 +9046,10 @@
         <v>1015</v>
       </c>
       <c r="B97" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -9083,10 +9057,10 @@
         <v>1016</v>
       </c>
       <c r="B98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -9094,10 +9068,10 @@
         <v>1017</v>
       </c>
       <c r="B99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C99" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -9105,10 +9079,10 @@
         <v>1018</v>
       </c>
       <c r="B100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -9116,10 +9090,10 @@
         <v>1019</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C101" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -9127,10 +9101,10 @@
         <v>1020</v>
       </c>
       <c r="B102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C102" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -9138,10 +9112,10 @@
         <v>1021</v>
       </c>
       <c r="B103" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -9149,10 +9123,10 @@
         <v>1022</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
@@ -9160,10 +9134,10 @@
         <v>1023</v>
       </c>
       <c r="B105" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C105" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -9171,10 +9145,10 @@
         <v>1024</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -9182,10 +9156,10 @@
         <v>1025</v>
       </c>
       <c r="B107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C107" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
@@ -9193,10 +9167,10 @@
         <v>1026</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C108" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
@@ -9204,10 +9178,10 @@
         <v>1027</v>
       </c>
       <c r="B109" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C109" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
@@ -9215,7 +9189,7 @@
         <v>1028</v>
       </c>
       <c r="B110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
@@ -9223,10 +9197,10 @@
         <v>1029</v>
       </c>
       <c r="B111" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
@@ -9234,10 +9208,10 @@
         <v>1030</v>
       </c>
       <c r="B112" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C112" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
@@ -9245,10 +9219,10 @@
         <v>1032</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C113" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
@@ -9256,10 +9230,10 @@
         <v>1033</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C114" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
@@ -9267,10 +9241,10 @@
         <v>1034</v>
       </c>
       <c r="B115" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
@@ -9278,10 +9252,10 @@
         <v>1035</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
@@ -9289,10 +9263,10 @@
         <v>1036</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
@@ -9300,10 +9274,10 @@
         <v>1038</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C118" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
@@ -9311,10 +9285,10 @@
         <v>1039</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
@@ -9322,10 +9296,10 @@
         <v>1040</v>
       </c>
       <c r="B120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C120" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
@@ -9333,10 +9307,10 @@
         <v>1041</v>
       </c>
       <c r="B121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C121" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
@@ -9344,10 +9318,10 @@
         <v>1042</v>
       </c>
       <c r="B122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C122" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
@@ -9355,10 +9329,10 @@
         <v>1043</v>
       </c>
       <c r="B123" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F123" s="4"/>
     </row>
@@ -9367,10 +9341,10 @@
         <v>1044</v>
       </c>
       <c r="B124" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C124" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
@@ -9378,10 +9352,10 @@
         <v>1046</v>
       </c>
       <c r="B125" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C125" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
@@ -9389,10 +9363,10 @@
         <v>1047</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C126" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
@@ -9400,10 +9374,10 @@
         <v>1048</v>
       </c>
       <c r="B127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C127" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
@@ -9411,7 +9385,7 @@
         <v>1049</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
@@ -9419,7 +9393,7 @@
         <v>1050</v>
       </c>
       <c r="B129" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
@@ -9427,7 +9401,7 @@
         <v>1051</v>
       </c>
       <c r="B130" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
@@ -9435,10 +9409,10 @@
         <v>1052</v>
       </c>
       <c r="B131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C131" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
@@ -9446,10 +9420,10 @@
         <v>130283</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
@@ -9457,10 +9431,10 @@
         <v>1053</v>
       </c>
       <c r="B133" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
@@ -9468,10 +9442,10 @@
         <v>1054</v>
       </c>
       <c r="B134" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C134" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
@@ -9479,10 +9453,10 @@
         <v>1055</v>
       </c>
       <c r="B135" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C135" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
@@ -9490,10 +9464,10 @@
         <v>1056</v>
       </c>
       <c r="B136" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C136" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
@@ -9501,10 +9475,10 @@
         <v>1057</v>
       </c>
       <c r="B137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
@@ -9512,10 +9486,10 @@
         <v>1058</v>
       </c>
       <c r="B138" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C138" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -9546,7 +9520,7 @@
         <v>301477</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -9578,7 +9552,7 @@
         <v>266295</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -9586,7 +9560,7 @@
         <v>265064</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -9602,7 +9576,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -9610,7 +9584,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -9618,7 +9592,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -9626,7 +9600,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
